--- a/iselUssSyncV2/OutputWSL/20220517_1415_D60L474W90Q7.4U0.18H52G2_S_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1415_D60L474W90Q7.4U0.18H52G2_S_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>-106</v>
       </c>
       <c r="E2" s="0">
-        <v>52.427182539682548</v>
+        <v>53.485008626639072</v>
       </c>
       <c r="F2" s="0">
-        <v>52.390158730158745</v>
+        <v>53.44573185268839</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>-106</v>
       </c>
       <c r="E3" s="0">
-        <v>52.783650793650772</v>
+        <v>53.795802188073083</v>
       </c>
       <c r="F3" s="0">
-        <v>54.344047619047636</v>
+        <v>55.079704989565563</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>-106</v>
       </c>
       <c r="E4" s="0">
-        <v>51.73539682539684</v>
+        <v>51.103253968253981</v>
       </c>
       <c r="F4" s="0">
-        <v>55.569722222222246</v>
+        <v>54.051031746031768</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>-106</v>
       </c>
       <c r="E5" s="0">
-        <v>51.094126984127016</v>
+        <v>50.414804274963672</v>
       </c>
       <c r="F5" s="0">
-        <v>55.980357142857095</v>
+        <v>54.65011809903239</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>-106</v>
       </c>
       <c r="E6" s="0">
-        <v>49.613585657370507</v>
+        <v>48.812514228799081</v>
       </c>
       <c r="F6" s="0">
-        <v>56.239999999999945</v>
+        <v>53.823095238095185</v>
       </c>
     </row>
     <row r="7">
@@ -222,9 +222,11 @@
         <v>-106</v>
       </c>
       <c r="E7" s="0">
-        <v>46.827848605577692</v>
-      </c>
-      <c r="F7" s="0"/>
+        <v>46.630269240498329</v>
+      </c>
+      <c r="F7" s="0">
+        <v>54.997435021817459</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -240,9 +242,11 @@
         <v>-106</v>
       </c>
       <c r="E8" s="0">
-        <v>41.738730158730156</v>
-      </c>
-      <c r="F8" s="0"/>
+        <v>41.538214285714282</v>
+      </c>
+      <c r="F8" s="0">
+        <v>65.223531746031711</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -258,9 +262,11 @@
         <v>-106</v>
       </c>
       <c r="E9" s="0">
-        <v>39.177490039840634</v>
-      </c>
-      <c r="F9" s="0"/>
+        <v>38.351497976348568</v>
+      </c>
+      <c r="F9" s="0">
+        <v>63.512350597609533</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -276,10 +282,10 @@
         <v>-106</v>
       </c>
       <c r="E10" s="0">
-        <v>35.404087301587303</v>
+        <v>34.325521564535507</v>
       </c>
       <c r="F10" s="0">
-        <v>19.628611111111109</v>
+        <v>16.931957724656929</v>
       </c>
     </row>
     <row r="11">
@@ -296,10 +302,10 @@
         <v>-106</v>
       </c>
       <c r="E11" s="0">
-        <v>32.760756972111551</v>
+        <v>31.692868525896412</v>
       </c>
       <c r="F11" s="0">
-        <v>21.899203187250997</v>
+        <v>19.20980079681275</v>
       </c>
     </row>
     <row r="12">
@@ -316,10 +322,10 @@
         <v>-106</v>
       </c>
       <c r="E12" s="0">
-        <v>31.792749003984063</v>
+        <v>31.616254980079681</v>
       </c>
       <c r="F12" s="0">
-        <v>22.754422310756976</v>
+        <v>20.100796812749007</v>
       </c>
     </row>
     <row r="13">
@@ -336,10 +342,10 @@
         <v>-106</v>
       </c>
       <c r="E13" s="0">
-        <v>27.355277777777776</v>
+        <v>26.279563492063488</v>
       </c>
       <c r="F13" s="0">
-        <v>23.573333333333338</v>
+        <v>20.879444444444452</v>
       </c>
     </row>
     <row r="14">
@@ -356,10 +362,10 @@
         <v>-106</v>
       </c>
       <c r="E14" s="0">
-        <v>27.493187250996012</v>
+        <v>26.447250996015931</v>
       </c>
       <c r="F14" s="0">
-        <v>24.080318725099609</v>
+        <v>21.41290836653387</v>
       </c>
     </row>
     <row r="15">
@@ -376,10 +382,10 @@
         <v>-106</v>
       </c>
       <c r="E15" s="0">
-        <v>28.84749003984064</v>
+        <v>27.796299563650162</v>
       </c>
       <c r="F15" s="0">
-        <v>24.398685258964129</v>
+        <v>21.737336052614925</v>
       </c>
     </row>
     <row r="16">
@@ -396,10 +402,10 @@
         <v>-106</v>
       </c>
       <c r="E16" s="0">
-        <v>29.931031746031739</v>
+        <v>28.898214285714278</v>
       </c>
       <c r="F16" s="0">
-        <v>24.493849206349214</v>
+        <v>22.47968253968255</v>
       </c>
     </row>
     <row r="17">
@@ -416,10 +422,10 @@
         <v>-106</v>
       </c>
       <c r="E17" s="0">
-        <v>29.283293650793649</v>
+        <v>28.938412698412698</v>
       </c>
       <c r="F17" s="0">
-        <v>24.393214285714294</v>
+        <v>21.82817460317461</v>
       </c>
     </row>
     <row r="18">
@@ -436,10 +442,10 @@
         <v>-106</v>
       </c>
       <c r="E18" s="0">
-        <v>29.451115537848597</v>
+        <v>28.393377442610504</v>
       </c>
       <c r="F18" s="0">
-        <v>24.468804780876486</v>
+        <v>21.787653987225692</v>
       </c>
     </row>
     <row r="19">
@@ -456,10 +462,10 @@
         <v>-106</v>
       </c>
       <c r="E19" s="0">
-        <v>29.679642857142838</v>
+        <v>28.639484126984108</v>
       </c>
       <c r="F19" s="0">
-        <v>24.765753968253971</v>
+        <v>22.108492063492065</v>
       </c>
     </row>
     <row r="20">
@@ -476,10 +482,10 @@
         <v>-106</v>
       </c>
       <c r="E20" s="0">
-        <v>28.848849206349193</v>
+        <v>27.761785714285701</v>
       </c>
       <c r="F20" s="0">
-        <v>24.840912698412708</v>
+        <v>22.135634920634931</v>
       </c>
     </row>
     <row r="21">
@@ -496,10 +502,10 @@
         <v>-106</v>
       </c>
       <c r="E21" s="0">
-        <v>26.758730158730149</v>
+        <v>25.711558843989113</v>
       </c>
       <c r="F21" s="0">
-        <v>25.072499999999994</v>
+        <v>22.430906374501987</v>
       </c>
     </row>
     <row r="22">
@@ -516,10 +522,10 @@
         <v>-106</v>
       </c>
       <c r="E22" s="0">
-        <v>24.566294820717136</v>
+        <v>23.088913868336185</v>
       </c>
       <c r="F22" s="0">
-        <v>25.016135458167334</v>
+        <v>22.734706886738763</v>
       </c>
     </row>
     <row r="23">
@@ -536,10 +542,10 @@
         <v>-106</v>
       </c>
       <c r="E23" s="0">
-        <v>22.604462151394422</v>
+        <v>21.087410358565737</v>
       </c>
       <c r="F23" s="0">
-        <v>25.209282868525904</v>
+        <v>22.509800796812755</v>
       </c>
     </row>
     <row r="24">
@@ -556,10 +562,10 @@
         <v>-106</v>
       </c>
       <c r="E24" s="0">
-        <v>21.358293650793645</v>
+        <v>19.872955005375317</v>
       </c>
       <c r="F24" s="0">
-        <v>25.2502380952381</v>
+        <v>22.129441282489097</v>
       </c>
     </row>
     <row r="25">
@@ -576,10 +582,10 @@
         <v>-106</v>
       </c>
       <c r="E25" s="0">
-        <v>23.039003984063747</v>
+        <v>22.204281761841525</v>
       </c>
       <c r="F25" s="0">
-        <v>25.138047808764945</v>
+        <v>22.820230348447485</v>
       </c>
     </row>
     <row r="26">
@@ -596,10 +602,10 @@
         <v>-106</v>
       </c>
       <c r="E26" s="0">
-        <v>21.710396825396813</v>
+        <v>21.082189654082072</v>
       </c>
       <c r="F26" s="0">
-        <v>25.171388888888881</v>
+        <v>23.485771359008403</v>
       </c>
     </row>
     <row r="27">
@@ -616,10 +622,10 @@
         <v>-106</v>
       </c>
       <c r="E27" s="0">
-        <v>21.285896414342627</v>
+        <v>20.607290836653384</v>
       </c>
       <c r="F27" s="0">
-        <v>24.927290836653391</v>
+        <v>23.435577689243033</v>
       </c>
     </row>
     <row r="28">
@@ -636,10 +642,10 @@
         <v>-106</v>
       </c>
       <c r="E28" s="0">
-        <v>20.372310756972123</v>
+        <v>20.217072661734029</v>
       </c>
       <c r="F28" s="0">
-        <v>24.660916334661358</v>
+        <v>23.255122683867707</v>
       </c>
     </row>
     <row r="29">
@@ -656,10 +662,10 @@
         <v>-106</v>
       </c>
       <c r="E29" s="0">
-        <v>19.477738095238095</v>
+        <v>18.818174603174604</v>
       </c>
       <c r="F29" s="0">
-        <v>24.514841269841263</v>
+        <v>23.051071428571422</v>
       </c>
     </row>
     <row r="30">
@@ -676,10 +682,10 @@
         <v>-106</v>
       </c>
       <c r="E30" s="0">
-        <v>21.167091633466129</v>
+        <v>20.980186871561365</v>
       </c>
       <c r="F30" s="0">
-        <v>23.778127490039839</v>
+        <v>23.185071934484284</v>
       </c>
     </row>
   </sheetData>
